--- a/Puaka-Data/Puaka - TestData.xlsx
+++ b/Puaka-Data/Puaka - TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F127A510-5C3F-48DC-82C0-44D98F5C21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CBCFF-93FE-44EA-9485-94E6535A921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2490" windowWidth="28800" windowHeight="15345" xr2:uid="{1A102E05-EC90-41A0-9565-24390482BF59}"/>
+    <workbookView xWindow="9045" yWindow="4755" windowWidth="28800" windowHeight="15345" xr2:uid="{1A102E05-EC90-41A0-9565-24390482BF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Actual KE(j)</t>
   </si>
   <si>
-    <t>Wheel Diam(in)</t>
-  </si>
-  <si>
     <t>Frames Per Rotation</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Average KE(j)</t>
+  </si>
+  <si>
+    <t>Wheel Radius(in)</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730AE73E-C89C-45B0-8DBF-B4D600DE73FF}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -842,6 +842,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D1E229DF76E394C93E37B73EE64FCC3" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d1087ab5ba82a5bff5e41de75770ec3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="968a2e0c-d156-4e92-ba29-376897837951" xmlns:ns4="83b0e8ec-6c68-4aa6-a1d0-efca38523695" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7157b3cf529def831c8132b665577afb" ns3:_="" ns4:_="">
     <xsd:import namespace="968a2e0c-d156-4e92-ba29-376897837951"/>
@@ -1032,15 +1041,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1048,6 +1048,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DC23F8-AEA2-4CF2-AC69-9E4E1D631191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EC37105-8DEE-4930-80D7-BB8C4FFCE0BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1062,14 +1070,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DC23F8-AEA2-4CF2-AC69-9E4E1D631191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Puaka-Data/Puaka - TestData.xlsx
+++ b/Puaka-Data/Puaka - TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CBCFF-93FE-44EA-9485-94E6535A921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9020C5C8-4037-4D03-8EB7-82AFD6457E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="4755" windowWidth="28800" windowHeight="15345" xr2:uid="{1A102E05-EC90-41A0-9565-24390482BF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A102E05-EC90-41A0-9565-24390482BF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Shot #</t>
   </si>
@@ -68,14 +68,27 @@
     <t>Average KE(j)</t>
   </si>
   <si>
-    <t>Wheel Radius(in)</t>
+    <t>Energy Retained (%)</t>
+  </si>
+  <si>
+    <t>Calculated Actual RPM</t>
+  </si>
+  <si>
+    <t>Measured Wheel Radius(in)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +114,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -424,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730AE73E-C89C-45B0-8DBF-B4D600DE73FF}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,14 +452,16 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,22 +478,28 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,24 +517,31 @@
         <v>7199.7876618408945</v>
       </c>
       <c r="F2">
+        <v>8760</v>
+      </c>
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7.16</v>
       </c>
-      <c r="H2">
-        <f>0.5*(G2/1000)*((E2*0.10472)*(F2*0.0254))^2</f>
-        <v>64.334685694983449</v>
-      </c>
       <c r="I2">
+        <f>0.5*(H2/1000)*((F2*0.10472)*(G2*0.0254))^2</f>
+        <v>95.238822946307394</v>
+      </c>
+      <c r="J2">
         <v>418.6</v>
       </c>
-      <c r="J2">
-        <f>0.5*(G2/1000)*(I2*0.3048)^2</f>
+      <c r="K2">
+        <f>0.5*(H2/1000)*(J2*0.3048)^2</f>
         <v>58.278907247887886</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <f>K2/I2</f>
+        <v>0.6119238504317055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,28 +555,35 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E11" si="0">(6.283/(1/(C3/B3)*D3))*9.5492965964254</f>
+        <f>(6.283/(1/(C3/B3)*D3))*9.5492965964254</f>
         <v>7199.7876618408945</v>
       </c>
       <c r="F3">
+        <v>8760</v>
+      </c>
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.16</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">0.5*(G3/1000)*((E3*0.10472)*(F3*0.0254))^2</f>
-        <v>64.334685694983449</v>
-      </c>
       <c r="I3">
+        <f t="shared" ref="I3:I11" si="0">0.5*(H3/1000)*((F3*0.10472)*(G3*0.0254))^2</f>
+        <v>95.238822946307394</v>
+      </c>
+      <c r="J3">
         <v>420.7</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="2">0.5*(G3/1000)*(I3*0.3048)^2</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="1">0.5*(H3/1000)*(J3*0.3048)^2</f>
         <v>58.865112182314391</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L11" si="2">K3/I3</f>
+        <v>0.61807895521242073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -559,28 +597,35 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
+        <f>(6.283/(1/(C4/B4)*D4))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F4">
+        <v>8760</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>7.16</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>7.16</v>
-      </c>
-      <c r="H4">
+        <v>95.238822946307394</v>
+      </c>
+      <c r="J4">
+        <v>424.4</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
-        <v>64.334685694983449</v>
-      </c>
-      <c r="I4">
-        <v>424.4</v>
-      </c>
-      <c r="J4">
+        <v>59.905086891005965</v>
+      </c>
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
-        <v>59.905086891005965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.62899860621732528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -594,28 +639,35 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
+        <f>(6.283/(1/(C5/B5)*D5))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F5">
+        <v>8760</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>7.16</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>7.16</v>
-      </c>
-      <c r="H5">
+        <v>95.238822946307394</v>
+      </c>
+      <c r="J5">
+        <v>430.1</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>64.334685694983449</v>
-      </c>
-      <c r="I5">
-        <v>430.1</v>
-      </c>
-      <c r="J5">
+        <v>61.525030417564039</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
-        <v>61.525030417564039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.64600788327938374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -629,28 +681,35 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
+        <f>(6.283/(1/(C6/B6)*D6))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F6">
+        <v>8760</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>7.17</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>7.17</v>
-      </c>
-      <c r="H6">
+        <v>95.371838062154183</v>
+      </c>
+      <c r="J6">
+        <v>426.2</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>64.42453860796526</v>
-      </c>
-      <c r="I6">
-        <v>426.2</v>
-      </c>
-      <c r="J6">
+        <v>60.498690735021711</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
-        <v>60.498690735021711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.63434544163440043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -664,28 +723,35 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
+        <f>(6.283/(1/(C7/B7)*D7))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F7">
+        <v>8760</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>7.17</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>7.17</v>
-      </c>
-      <c r="H7">
+        <v>95.371838062154183</v>
+      </c>
+      <c r="J7">
+        <v>427.3</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>64.42453860796526</v>
-      </c>
-      <c r="I7">
-        <v>427.3</v>
-      </c>
-      <c r="J7">
+        <v>60.81138167350953</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
-        <v>60.81138167350953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.63762409228055905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -699,28 +765,35 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
+        <f>(6.283/(1/(C8/B8)*D8))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F8">
+        <v>8760</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7.17</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>7.17</v>
-      </c>
-      <c r="H8">
+        <v>95.371838062154183</v>
+      </c>
+      <c r="J8">
+        <v>429</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
-        <v>64.42453860796526</v>
-      </c>
-      <c r="I8">
-        <v>429</v>
-      </c>
-      <c r="J8">
+        <v>61.296216658934391</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
-        <v>61.296216658934391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.64270772068991078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -734,28 +807,35 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
+        <f>(6.283/(1/(C9/B9)*D9))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F9">
+        <v>8760</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7.17</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>7.17</v>
-      </c>
-      <c r="H9">
+        <v>95.371838062154183</v>
+      </c>
+      <c r="J9">
+        <v>430.3</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v>64.42453860796526</v>
-      </c>
-      <c r="I9">
-        <v>430.3</v>
-      </c>
-      <c r="J9">
+        <v>61.66827174811305</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>61.66827174811305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.6466088208127394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -769,28 +849,35 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
+        <f>(6.283/(1/(C10/B10)*D10))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F10">
+        <v>8760</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>7.16</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>7.16</v>
-      </c>
-      <c r="H10">
+        <v>95.238822946307394</v>
+      </c>
+      <c r="J10">
+        <v>422.3</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>64.334685694983449</v>
-      </c>
-      <c r="I10">
-        <v>422.3</v>
-      </c>
-      <c r="J10">
+        <v>59.313713463174523</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
-        <v>59.313713463174523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.62278923267052244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -804,40 +891,48 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
+        <f>(6.283/(1/(C11/B11)*D11))*9.5492965964254</f>
+        <v>7199.7876618408945</v>
+      </c>
+      <c r="F11">
+        <v>8760</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>7.16</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>7199.7876618408945</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>7.16</v>
-      </c>
-      <c r="H11">
+        <v>95.238822946307394</v>
+      </c>
+      <c r="J11">
+        <v>419.5</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
-        <v>64.334685694983449</v>
-      </c>
-      <c r="I11">
-        <v>419.5</v>
-      </c>
-      <c r="J11">
+        <v>58.529778733756807</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
-        <v>58.529778733756807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+        <v>0.61455798090610614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15">
-        <f>AVERAGE(J2:J11)</f>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f>AVERAGE(K2:K11)</f>
         <v>60.069218975128216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Puaka-Data/Puaka - TestData.xlsx
+++ b/Puaka-Data/Puaka - TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9020C5C8-4037-4D03-8EB7-82AFD6457E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92410069-995D-4B75-8E51-C6B51AA90CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A102E05-EC90-41A0-9565-24390482BF59}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Calculated Actual RPM</t>
   </si>
   <si>
-    <t>Measured Wheel Radius(in)</t>
+    <t>Maximum Deformed Radius(in)</t>
   </si>
 </sst>
 </file>
@@ -440,9 +440,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730AE73E-C89C-45B0-8DBF-B4D600DE73FF}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -453,7 +453,7 @@
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <f>(6.283/(1/(C2/B2)*D2))*9.5492965964254</f>
+        <f t="shared" ref="E2:E11" si="0">(6.283/(1/(C2/B2)*D2))*9.5492965964254</f>
         <v>7199.7876618408945</v>
       </c>
       <c r="F2">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f>(6.283/(1/(C3/B3)*D3))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F3">
@@ -568,18 +568,18 @@
         <v>7.16</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">0.5*(H3/1000)*((F3*0.10472)*(G3*0.0254))^2</f>
+        <f t="shared" ref="I3:I11" si="1">0.5*(H3/1000)*((F3*0.10472)*(G3*0.0254))^2</f>
         <v>95.238822946307394</v>
       </c>
       <c r="J3">
         <v>420.7</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="1">0.5*(H3/1000)*(J3*0.3048)^2</f>
+        <f t="shared" ref="K3:K11" si="2">0.5*(H3/1000)*(J3*0.3048)^2</f>
         <v>58.865112182314391</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L11" si="2">K3/I3</f>
+        <f t="shared" ref="L3:L11" si="3">K3/I3</f>
         <v>0.61807895521242073</v>
       </c>
     </row>
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <f>(6.283/(1/(C4/B4)*D4))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F4">
@@ -610,18 +610,18 @@
         <v>7.16</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.238822946307394</v>
       </c>
       <c r="J4">
         <v>424.4</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.905086891005965</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62899860621732528</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <f>(6.283/(1/(C5/B5)*D5))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F5">
@@ -652,18 +652,18 @@
         <v>7.16</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.238822946307394</v>
       </c>
       <c r="J5">
         <v>430.1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.525030417564039</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64600788327938374</v>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <f>(6.283/(1/(C6/B6)*D6))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F6">
@@ -694,18 +694,18 @@
         <v>7.17</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.371838062154183</v>
       </c>
       <c r="J6">
         <v>426.2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.498690735021711</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63434544163440043</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f>(6.283/(1/(C7/B7)*D7))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F7">
@@ -736,18 +736,18 @@
         <v>7.17</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.371838062154183</v>
       </c>
       <c r="J7">
         <v>427.3</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.81138167350953</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63762409228055905</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <f>(6.283/(1/(C8/B8)*D8))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F8">
@@ -778,18 +778,18 @@
         <v>7.17</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.371838062154183</v>
       </c>
       <c r="J8">
         <v>429</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.296216658934391</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64270772068991078</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f>(6.283/(1/(C9/B9)*D9))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F9">
@@ -820,18 +820,18 @@
         <v>7.17</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.371838062154183</v>
       </c>
       <c r="J9">
         <v>430.3</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.66827174811305</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6466088208127394</v>
       </c>
     </row>
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <f>(6.283/(1/(C10/B10)*D10))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F10">
@@ -862,18 +862,18 @@
         <v>7.16</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.238822946307394</v>
       </c>
       <c r="J10">
         <v>422.3</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.313713463174523</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62278923267052244</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <f>(6.283/(1/(C11/B11)*D11))*9.5492965964254</f>
+        <f t="shared" si="0"/>
         <v>7199.7876618408945</v>
       </c>
       <c r="F11">
@@ -904,18 +904,18 @@
         <v>7.16</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.238822946307394</v>
       </c>
       <c r="J11">
         <v>419.5</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.529778733756807</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61455798090610614</v>
       </c>
     </row>
@@ -928,6 +928,12 @@
       <c r="K15">
         <f>AVERAGE(K2:K11)</f>
         <v>60.069218975128216</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f>60/7270.6</f>
+        <v>8.2524138310455797E-3</v>
       </c>
     </row>
   </sheetData>
@@ -937,15 +943,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D1E229DF76E394C93E37B73EE64FCC3" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d1087ab5ba82a5bff5e41de75770ec3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="968a2e0c-d156-4e92-ba29-376897837951" xmlns:ns4="83b0e8ec-6c68-4aa6-a1d0-efca38523695" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7157b3cf529def831c8132b665577afb" ns3:_="" ns4:_="">
     <xsd:import namespace="968a2e0c-d156-4e92-ba29-376897837951"/>
@@ -1136,6 +1133,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1143,14 +1149,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DC23F8-AEA2-4CF2-AC69-9E4E1D631191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EC37105-8DEE-4930-80D7-BB8C4FFCE0BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1165,6 +1163,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DC23F8-AEA2-4CF2-AC69-9E4E1D631191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
